--- a/test_uploads/template.xlsx
+++ b/test_uploads/template.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>fishing entity</t>
   </si>
@@ -35,10 +35,7 @@
     <t>province state</t>
   </si>
   <si>
-    <t>ICES division</t>
-  </si>
-  <si>
-    <t>ICES subdivision</t>
+    <t>ICES area</t>
   </si>
   <si>
     <t>NAFO division</t>
@@ -1502,7 +1499,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1535,8 +1532,7 @@
     <col min="25" max="25" width="9.125" style="1" customWidth="1"/>
     <col min="26" max="26" width="9.125" style="1" customWidth="1"/>
     <col min="27" max="27" width="9.125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.125" style="1" customWidth="1"/>
-    <col min="29" max="256" width="9" style="1" customWidth="1"/>
+    <col min="28" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1618,11 +1614,8 @@
       <c r="Z1" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="3">
+      <c r="AA1" t="s" s="4">
         <v>26</v>
-      </c>
-      <c r="AB1" t="s" s="4">
-        <v>27</v>
       </c>
     </row>
     <row r="2" ht="20.35" customHeight="1">
@@ -1653,7 +1646,6 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
       <c r="A3" s="5"/>
@@ -1683,7 +1675,6 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" s="5"/>
@@ -1713,7 +1704,6 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" s="5"/>
@@ -1743,7 +1733,6 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" s="5"/>
@@ -1773,7 +1762,6 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" s="5"/>
@@ -1803,7 +1791,6 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="5"/>
@@ -1833,7 +1820,6 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" s="5"/>
@@ -1863,7 +1849,6 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" s="5"/>
@@ -1893,7 +1878,6 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
       <c r="A11" s="5"/>
@@ -1923,7 +1907,6 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_uploads/template.xlsx
+++ b/test_uploads/template.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>fishing entity</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>layer rule</t>
-  </si>
-  <si>
-    <t>reference id</t>
   </si>
   <si>
     <t>notes</t>
@@ -1499,7 +1496,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1531,8 +1528,7 @@
     <col min="24" max="24" width="9.125" style="1" customWidth="1"/>
     <col min="25" max="25" width="9.125" style="1" customWidth="1"/>
     <col min="26" max="26" width="9.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.125" style="1" customWidth="1"/>
-    <col min="28" max="256" width="9" style="1" customWidth="1"/>
+    <col min="27" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1611,11 +1607,8 @@
       <c r="Y1" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="3">
+      <c r="Z1" t="s" s="4">
         <v>25</v>
-      </c>
-      <c r="AA1" t="s" s="4">
-        <v>26</v>
       </c>
     </row>
     <row r="2" ht="20.35" customHeight="1">
@@ -1645,7 +1638,6 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
       <c r="A3" s="5"/>
@@ -1674,7 +1666,6 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" s="5"/>
@@ -1703,7 +1694,6 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" s="5"/>
@@ -1732,7 +1722,6 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" s="5"/>
@@ -1761,7 +1750,6 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" s="5"/>
@@ -1790,7 +1778,6 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="5"/>
@@ -1819,7 +1806,6 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" s="5"/>
@@ -1848,7 +1834,6 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" s="5"/>
@@ -1877,7 +1862,6 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
       <c r="A11" s="5"/>
@@ -1906,7 +1890,6 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
